--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3116673333333334</v>
+        <v>0.1591403333333333</v>
       </c>
       <c r="N2">
-        <v>0.935002</v>
+        <v>0.477421</v>
       </c>
       <c r="O2">
-        <v>0.0414413620607491</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="P2">
-        <v>0.04144136206074909</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="Q2">
-        <v>6.219565568299556</v>
+        <v>4.650628937588666</v>
       </c>
       <c r="R2">
-        <v>55.976090114696</v>
+        <v>41.855660438298</v>
       </c>
       <c r="S2">
-        <v>0.0004864114380310872</v>
+        <v>0.0002130472419508175</v>
       </c>
       <c r="T2">
-        <v>0.0004864114380310872</v>
+        <v>0.0002130472419508175</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.383754</v>
       </c>
       <c r="O3">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="P3">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="Q3">
-        <v>75.7239069182658</v>
+        <v>110.8908400987613</v>
       </c>
       <c r="R3">
-        <v>681.5151622643921</v>
+        <v>998.017560888852</v>
       </c>
       <c r="S3">
-        <v>0.005922113699577264</v>
+        <v>0.005079955411987714</v>
       </c>
       <c r="T3">
-        <v>0.005922113699577264</v>
+        <v>0.005079955411987715</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H4">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.414430666666667</v>
+        <v>8.673183333333334</v>
       </c>
       <c r="N4">
-        <v>10.243292</v>
+        <v>26.01955</v>
       </c>
       <c r="O4">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060228</v>
       </c>
       <c r="P4">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060229</v>
       </c>
       <c r="Q4">
-        <v>68.13763631440177</v>
+        <v>253.4603047897667</v>
       </c>
       <c r="R4">
-        <v>613.238726829616</v>
+        <v>2281.1427431079</v>
       </c>
       <c r="S4">
-        <v>0.005328816828084144</v>
+        <v>0.01161112176527927</v>
       </c>
       <c r="T4">
-        <v>0.005328816828084144</v>
+        <v>0.01161112176527927</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>4912.03003</v>
       </c>
       <c r="I5">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J5">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3116673333333334</v>
+        <v>0.1591403333333333</v>
       </c>
       <c r="N5">
-        <v>0.935002</v>
+        <v>0.477421</v>
       </c>
       <c r="O5">
-        <v>0.0414413620607491</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="P5">
-        <v>0.04144136206074909</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="Q5">
-        <v>510.3064335677844</v>
+        <v>260.5673654391811</v>
       </c>
       <c r="R5">
-        <v>4592.75790211006</v>
+        <v>2345.10628895263</v>
       </c>
       <c r="S5">
-        <v>0.0399093607845162</v>
+        <v>0.01193669916353113</v>
       </c>
       <c r="T5">
-        <v>0.0399093607845162</v>
+        <v>0.01193669916353113</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J6">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +809,22 @@
         <v>11.383754</v>
       </c>
       <c r="O6">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="P6">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="Q6">
         <v>6213.037944681402</v>
       </c>
       <c r="R6">
-        <v>55917.34150213263</v>
+        <v>55917.34150213261</v>
       </c>
       <c r="S6">
-        <v>0.4859009344024712</v>
+        <v>0.284621847069241</v>
       </c>
       <c r="T6">
-        <v>0.4859009344024713</v>
+        <v>0.2846218470692411</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J7">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.414430666666667</v>
+        <v>8.673183333333334</v>
       </c>
       <c r="N7">
-        <v>10.243292</v>
+        <v>26.01955</v>
       </c>
       <c r="O7">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060228</v>
       </c>
       <c r="P7">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060229</v>
       </c>
       <c r="Q7">
-        <v>5590.595323339861</v>
+        <v>14200.97899634294</v>
       </c>
       <c r="R7">
-        <v>50315.35791005876</v>
+        <v>127808.8109670865</v>
       </c>
       <c r="S7">
-        <v>0.4372217771182826</v>
+        <v>0.6505527421719121</v>
       </c>
       <c r="T7">
-        <v>0.4372217771182826</v>
+        <v>0.6505527421719121</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H8">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I8">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J8">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3116673333333334</v>
+        <v>0.1591403333333333</v>
       </c>
       <c r="N8">
-        <v>0.935002</v>
+        <v>0.477421</v>
       </c>
       <c r="O8">
-        <v>0.0414413620607491</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="P8">
-        <v>0.04144136206074909</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="Q8">
-        <v>7.915142036304445</v>
+        <v>5.950595501775556</v>
       </c>
       <c r="R8">
-        <v>71.23627832674001</v>
+        <v>53.55535951598</v>
       </c>
       <c r="S8">
-        <v>0.0006190168071741636</v>
+        <v>0.0002725992498286804</v>
       </c>
       <c r="T8">
-        <v>0.0006190168071741636</v>
+        <v>0.0002725992498286804</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H9">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I9">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J9">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>11.383754</v>
       </c>
       <c r="O9">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="P9">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="Q9">
-        <v>96.36774019344224</v>
+        <v>141.8875905033911</v>
       </c>
       <c r="R9">
-        <v>867.3096617409802</v>
+        <v>1276.98831453052</v>
       </c>
       <c r="S9">
-        <v>0.00753659891073614</v>
+        <v>0.006499929413733872</v>
       </c>
       <c r="T9">
-        <v>0.007536598910736141</v>
+        <v>0.006499929413733873</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H10">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I10">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J10">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.414430666666667</v>
+        <v>8.673183333333334</v>
       </c>
       <c r="N10">
-        <v>10.243292</v>
+        <v>26.01955</v>
       </c>
       <c r="O10">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060228</v>
       </c>
       <c r="P10">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060229</v>
       </c>
       <c r="Q10">
-        <v>86.71330232378223</v>
+        <v>324.3087698032223</v>
       </c>
       <c r="R10">
-        <v>780.4197209140401</v>
+        <v>2918.778928229</v>
       </c>
       <c r="S10">
-        <v>0.006781557588959865</v>
+        <v>0.01485671935436405</v>
       </c>
       <c r="T10">
-        <v>0.006781557588959866</v>
+        <v>0.01485671935436405</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H11">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I11">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J11">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3116673333333334</v>
+        <v>0.1591403333333333</v>
       </c>
       <c r="N11">
-        <v>0.935002</v>
+        <v>0.477421</v>
       </c>
       <c r="O11">
-        <v>0.0414413620607491</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="P11">
-        <v>0.04144136206074909</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="Q11">
-        <v>5.454433692768445</v>
+        <v>3.949412228769</v>
       </c>
       <c r="R11">
-        <v>49.089903234916</v>
+        <v>35.54471005892101</v>
       </c>
       <c r="S11">
-        <v>0.000426573031027644</v>
+        <v>0.0001809242134682831</v>
       </c>
       <c r="T11">
-        <v>0.000426573031027644</v>
+        <v>0.0001809242134682831</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H12">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I12">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J12">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>11.383754</v>
       </c>
       <c r="O12">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="P12">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="Q12">
-        <v>66.40834069637025</v>
+        <v>94.170841368306</v>
       </c>
       <c r="R12">
-        <v>597.6750662673321</v>
+        <v>847.537572314754</v>
       </c>
       <c r="S12">
-        <v>0.005193574396902965</v>
+        <v>0.004314005330235624</v>
       </c>
       <c r="T12">
-        <v>0.005193574396902966</v>
+        <v>0.004314005330235624</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H13">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I13">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J13">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.414430666666667</v>
+        <v>8.673183333333334</v>
       </c>
       <c r="N13">
-        <v>10.243292</v>
+        <v>26.01955</v>
       </c>
       <c r="O13">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060228</v>
       </c>
       <c r="P13">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060229</v>
       </c>
       <c r="Q13">
-        <v>59.75533422352623</v>
+        <v>215.24383920495</v>
       </c>
       <c r="R13">
-        <v>537.7980080117361</v>
+        <v>1937.19455284455</v>
       </c>
       <c r="S13">
-        <v>0.004673264994236608</v>
+        <v>0.009860409614467453</v>
       </c>
       <c r="T13">
-        <v>0.004673264994236609</v>
+        <v>0.009860409614467455</v>
       </c>
     </row>
   </sheetData>
